--- a/tests/fixtures/migrate/wc_lang_model_w_no_model_attrs.xlsx
+++ b/tests/fixtures/migrate/wc_lang_model_w_no_model_attrs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/obj_model/tests/fixtures/migrate/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="640" windowWidth="25060" windowHeight="10440" tabRatio="993" firstSheet="8" activeTab="18"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -33,21 +28,21 @@
     <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
@@ -94,15 +89,7 @@
     <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -154,7 +141,7 @@
     <t>Time units</t>
   </si>
   <si>
-    <t>s</t>
+    <t>second</t>
   </si>
   <si>
     <t>Database references</t>
@@ -169,9 +156,15 @@
     <t>Updated</t>
   </si>
   <si>
+    <t>taxon</t>
+  </si>
+  <si>
     <t>Rank</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
     <t>References</t>
   </si>
   <si>
@@ -184,7 +177,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -247,13 +240,13 @@
     <t>3d</t>
   </si>
   <si>
-    <t>g</t>
+    <t>gram</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>l</t>
+    <t>liter</t>
   </si>
   <si>
     <t>density_c</t>
@@ -319,7 +312,7 @@
     <t>dist-init-conc-spec_type_0[c]</t>
   </si>
   <si>
-    <t>M</t>
+    <t>molar</t>
   </si>
   <si>
     <t>dist-init-conc-spec_type_1[c]</t>
@@ -361,7 +354,7 @@
     <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
   </si>
   <si>
-    <t>s^-1</t>
+    <t>1 / second</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -400,10 +393,19 @@
     <t>Standard error</t>
   </si>
   <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule / mole</t>
+  </si>
+  <si>
     <t>carbonExchangeRate</t>
   </si>
   <si>
-    <t>mmol gDCW^-1 h^-1</t>
+    <t>millimole / gDCW / hour</t>
+  </si>
+  <si>
+    <t>gram / liter</t>
   </si>
   <si>
     <t>fractionDryWeight</t>
@@ -412,24 +414,15 @@
     <t>dimensionless</t>
   </si>
   <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>1 / molecule / second</t>
+  </si>
+  <si>
     <t>nonCarbonExchangeRate</t>
   </si>
   <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
     <t>Taxon</t>
   </si>
   <si>
@@ -476,19 +469,19 @@
   </si>
   <si>
     <t>Pages</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
-    <t>domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -499,41 +492,191 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,8 +689,194 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -555,10 +884,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -576,16 +1144,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,26 +1162,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -696,10 +1308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="212121"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F3F3F3"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -943,151 +1555,158 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="12" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="27" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:B15">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,63 +1714,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:D2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,87 +1783,92 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:J2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="4.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,77 +1876,82 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:G2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1325,55 +1959,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,51 +2018,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:E1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1433,57 +2075,62 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:G1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1491,132 +2138,132 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6.02214075862E+23</v>
+        <v>91</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6.02214075862e+23</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>97</v>
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1">
         <v>1100</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="4">
         <v>0.3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4">
         <v>20</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1624,32 +2271,37 @@
       <c r="J7" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H7"/>
+  <autoFilter ref="A1:H7">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:K7">
     <sortCondition ref="A2:A7"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1657,48 +2309,53 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1706,64 +2363,67 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,46 +2431,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -1820,170 +2480,183 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1666666666667" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A6"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:A6">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,53 +2664,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:F2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2045,109 +2723,114 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4.58E-17</v>
+        <v>49</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
-        <v>4.5800000000000003E-18</v>
+        <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:H2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L$1:L$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2155,39 +2838,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2196,15 +2879,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2213,33 +2896,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I3"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:I3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2247,58 +2935,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2307,25 +2995,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1666666666667" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,91 +3023,96 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
-        <v>33.210780808543298</v>
+        <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:E3">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2425,27 +3120,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <autoFilter ref="A1:E1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>